--- a/uploads/123456A MBOM.xlsx
+++ b/uploads/123456A MBOM.xlsx
@@ -1768,7 +1768,7 @@
       <c r="Q26" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" algorithmName="SHA-512" hashValue="KmpcB31sihab35B5R0vXUkOdQdrPE/etTwOqdmwxf7V0h6ZeUGNlf7odbfd++y2xowPRWsoVRF3jPglaiIGFcw==" saltValue="loxaaxGH2GGOg1FRly0M9Q==" spinCount="100000"/>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" algorithmName="SHA-512" hashValue="1mb59EGRIO0CbChT4RglwSZ1c7Ik2ziN2ttV0ewI+xiSmzUdDU9opgiHapTDyjoarEdpXW2BhmAebOEaCH+EIQ==" saltValue="CUejfVYANLGhp6mjv/ILxw==" spinCount="100000"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
